--- a/src/test/resources/case/getTrain.xlsx
+++ b/src/test/resources/case/getTrain.xlsx
@@ -137,10 +137,6 @@
     <t>/expected/train_base9.json</t>
   </si>
   <si>
-    <t>/nchr/personresume/gettrain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取培训信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,6 +150,10 @@
   </si>
   <si>
     <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/personresume/gettrain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +521,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B23"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -556,10 +556,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -571,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
